--- a/medicine/Enfance/Zone_de_Turbulence/Zone_de_Turbulence.xlsx
+++ b/medicine/Enfance/Zone_de_Turbulence/Zone_de_Turbulence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zone de Turbulence est une émission de télévision québécoise pour préadolescents composée de 160 épisodes de 26 minutes diffusée à partir du 7 septembre 1998 jusqu'en 2000 sur le Canal Famille puis rediffusée jusqu'à l'été 2003 sur VRAK.TV.
-Ce magazine quotidien fait appel à l’inusité, le farfelu et l’imprévisible pour informer avec humour, originalité et audace. Via des discussions, des reportages et des sketchs, chaque épisode explore un thème sous tous ses angles et selon la personnalité de chacun des animateurs[1].
+Ce magazine quotidien fait appel à l’inusité, le farfelu et l’imprévisible pour informer avec humour, originalité et audace. Via des discussions, des reportages et des sketchs, chaque épisode explore un thème sous tous ses angles et selon la personnalité de chacun des animateurs.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Isabelle Brouillette
 Frédéric Desager
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auteurs : François Avard, Pascal Blanchet, Martin Doyon, Michel Lessard, Louis-Philippe Morin, Jean Y. Pelletier, François Parenteau et Martin Thibaudeau
 Concepteurs : Anne-Marie Hétu et Claude Landry
